--- a/data/trans_bre/P6901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,06; 19,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,9; 45,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 65,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,88; -6,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,89; 25,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,99; 102,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,01; 236,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,88; -6,76</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,04; 15,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 15,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 21,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,19; 2,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,42; 23,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,54; 22,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 28,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,27; 2,9</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 21,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 21,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 15,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 15,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 34,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 34,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,65; 21,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 22,35</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; 19,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,48; 7,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 28,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 23,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,26; 27,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,5; 10,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 50,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 40,26</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,28; -1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 35,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 25,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 27,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,3; -2,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 57,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,47; 37,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 46,7</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -1183,27 +1183,27 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-37,99; 63,41</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,82; 207,54</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 9,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 17,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 9,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 13,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 16,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 24,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 14,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,24</t>
+          <t>-33,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,24%</t>
+          <t>-33,03%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-69,88; -6,76</t>
+          <t>-72,72; -7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,88; -6,76</t>
+          <t>-72,72; -7,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,46</t>
+          <t>-18,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,3%</t>
+          <t>-22,25%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 2,44</t>
+          <t>-36,06; 2,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 2,9</t>
+          <t>-40,4; 2,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 15,54</t>
+          <t>-9,28; 15,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 22,35</t>
+          <t>-11,37; 21,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 23,01</t>
+          <t>2,73; 30,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 40,26</t>
+          <t>3,9; 54,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 27,53</t>
+          <t>1,89; 27,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 46,7</t>
+          <t>2,88; 47,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 63,41</t>
+          <t>-37,83; 63,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 207,54</t>
+          <t>-39,9; 202,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,44</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-3,69; 9,74</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-4,49; 11,39</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,19; 17,58</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 9,96</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 12,84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-4,71; 13,48</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-6,04; 16,14</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,99; 24,91</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 14,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 18,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 19,3</t>
+          <t>-18,87; 17,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 45,49</t>
+          <t>-29,99; 48,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 65,35</t>
+          <t>11,56; 65,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,72; -7,8</t>
+          <t>-75,52; -8,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 25,63</t>
+          <t>-21,13; 23,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 102,49</t>
+          <t>-32,67; 110,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 236,62</t>
+          <t>16,6; 246,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-72,72; -7,8</t>
+          <t>-75,52; -8,4</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 15,17</t>
+          <t>-10,79; 15,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 15,69</t>
+          <t>-12,71; 15,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 21,05</t>
+          <t>-2,38; 20,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 2,0</t>
+          <t>-35,74; 3,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 23,5</t>
+          <t>-13,74; 23,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 22,66</t>
+          <t>-15,68; 21,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 28,85</t>
+          <t>-2,75; 27,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 2,88</t>
+          <t>-40,98; 4,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 21,91</t>
+          <t>-3,45; 23,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 21,78</t>
+          <t>-4,11; 23,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 15,53</t>
+          <t>-8,64; 15,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 15,16</t>
+          <t>-9,85; 13,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 34,58</t>
+          <t>-4,36; 38,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 34,84</t>
+          <t>-5,3; 36,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 21,43</t>
+          <t>-10,49; 21,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 21,7</t>
+          <t>-11,66; 19,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 19,63</t>
+          <t>-9,46; 19,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 7,65</t>
+          <t>-28,18; 7,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 28,44</t>
+          <t>-2,57; 29,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 30,48</t>
+          <t>2,41; 29,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 27,62</t>
+          <t>-10,98; 27,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 10,3</t>
+          <t>-35,47; 10,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 50,21</t>
+          <t>-3,26; 51,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 54,91</t>
+          <t>2,74; 50,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-54,28; -1,68</t>
+          <t>-54,14; -4,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 35,01</t>
+          <t>-1,4; 32,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 25,3</t>
+          <t>-12,91; 23,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 27,29</t>
+          <t>0,77; 27,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-59,3; -2,15</t>
+          <t>-59,71; -5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 57,61</t>
+          <t>-0,06; 52,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 37,29</t>
+          <t>-14,3; 35,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 47,26</t>
+          <t>1,65; 50,17</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 63,18</t>
+          <t>-38,09; 63,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 202,91</t>
+          <t>-39,81; 205,87</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,74</t>
+          <t>-4,22; 9,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,39</t>
+          <t>-4,22; 11,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,58</t>
+          <t>2,77; 16,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 12,84</t>
+          <t>-2,27; 13,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,48</t>
+          <t>-5,28; 13,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 16,14</t>
+          <t>-5,34; 15,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 24,91</t>
+          <t>3,63; 24,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 18,75</t>
+          <t>-2,75; 20,14</t>
         </is>
       </c>
     </row>
